--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swagg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swagg\IdeaProjects\CmdShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69404AD-F07B-4449-BC80-60884240EFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2291876A-6FAF-4E1D-BED5-B68CBBBB0DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3396" yWindow="2520" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,29 +25,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>客户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>陈益财</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桂林电子科技大学花江校区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyc111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -99,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -381,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -395,30 +407,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>15500932013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>15508910603</v>
       </c>
     </row>
   </sheetData>

--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swagg\IdeaProjects\CmdShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2291876A-6FAF-4E1D-BED5-B68CBBBB0DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBDACA-EC16-4BA1-A65E-2655B1200D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3396" yWindow="2520" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>陈益财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>桂林电子科技大学花江校区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +56,14 @@
   </si>
   <si>
     <t>GUET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,9 +71,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="000000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,8 +112,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,7 +397,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -407,41 +408,41 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>15500932013</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>15508910603</v>
